--- a/SDET_9_PRoject/testData/TestData.xlsx
+++ b/SDET_9_PRoject/testData/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19410" windowHeight="6075"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="16335" windowHeight="7875"/>
   </bookViews>
   <sheets>
     <sheet name="Contact" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,10 @@
     <sheet name="addToCart" sheetId="4" r:id="rId3"/>
     <sheet name="addToCartTest" sheetId="5" r:id="rId4"/>
     <sheet name="Org" sheetId="2" r:id="rId5"/>
+    <sheet name="Quote" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I13"/>
+  <oleSize ref="A4:K22"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="151">
   <si>
     <t>TestID</t>
   </si>
@@ -41,9 +42,6 @@
     <t>arg3</t>
   </si>
   <si>
-    <t>createContact</t>
-  </si>
-  <si>
     <t>tc_02</t>
   </si>
   <si>
@@ -56,9 +54,6 @@
     <t>Deepak</t>
   </si>
   <si>
-    <t>Partner</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -407,37 +402,88 @@
     <t>49</t>
   </si>
   <si>
-    <t>Manuu</t>
-  </si>
-  <si>
     <t>orgType</t>
   </si>
   <si>
     <t>rating</t>
   </si>
   <si>
-    <t>contactName</t>
-  </si>
-  <si>
-    <t>deepak_</t>
-  </si>
-  <si>
     <t>Active</t>
   </si>
   <si>
-    <t>Ksipders_</t>
-  </si>
-  <si>
-    <t>Mspiders</t>
-  </si>
-  <si>
-    <t>tc_10</t>
+    <t>Shobha</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Investor</t>
+  </si>
+  <si>
+    <t>Civil_Materials</t>
+  </si>
+  <si>
+    <t>CreateQuoteWithOrg</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>ContactName</t>
+  </si>
+  <si>
+    <t>BillinmgAdd</t>
+  </si>
+  <si>
+    <t>ShippingAdd</t>
+  </si>
+  <si>
+    <t>productDesc</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Jaipur</t>
+  </si>
+  <si>
+    <t>Manglore</t>
+  </si>
+  <si>
+    <t>contLastName</t>
+  </si>
+  <si>
+    <t>contFirstName</t>
+  </si>
+  <si>
+    <t>aaj</t>
+  </si>
+  <si>
+    <t>singh</t>
+  </si>
+  <si>
+    <t>LeadSource</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>Marketing Group</t>
+  </si>
+  <si>
+    <t>AssignDpn2</t>
+  </si>
+  <si>
+    <t>Support Group</t>
+  </si>
+  <si>
+    <t>AssignDpn1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,7 +584,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -573,7 +619,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -750,7 +796,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -758,10 +804,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L314"/>
+  <dimension ref="A1:P314"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -769,11 +815,13 @@
     <col min="2" max="2" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="6" width="27.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="15.7109375" customWidth="1"/>
+    <col min="12" max="12" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,31 +829,75 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -814,8 +906,12 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -823,57 +919,12 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -882,40 +933,40 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>127</v>
-      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -924,8 +975,12 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="1:16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -934,310 +989,314 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="39" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="40" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="42" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="43" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="49" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="81" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="83" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="84" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="85" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="86" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="87" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="88" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="89" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="90" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="91" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="92" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="93" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="95" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="96" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="97" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="98" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="99" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="100" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="102" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="103" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="106" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="108" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="109" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="111" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="112" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="114" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="120" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="121" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="123" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="124" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="126" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="127" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="129" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="130" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="132" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="133" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="135" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="136" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="138" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="139" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="141" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="142" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="144" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="147" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="148" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="150" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="151" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="153" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="154" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="156" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="157" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="159" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="160" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="162" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="163" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="165" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="166" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="168" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="169" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="171" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="172" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="174" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="175" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="177" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="178" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="180" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="181" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="183" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="184" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="186" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="187" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="189" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="190" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="192" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="193" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="195" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="196" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="198" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="199" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="201" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="202" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="204" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="207" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="208" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="210" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="211" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="213" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="214" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="216" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="217" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="220" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="222" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="223" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="225" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="226" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="228" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="229" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="231" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="232" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="234" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="237" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="238" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="240" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="241" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="243" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="244" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="246" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="247" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="249" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="250" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="252" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="253" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="255" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="256" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="258" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="259" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="261" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="262" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="264" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="265" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="267" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="268" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="270" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="271" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="273" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="274" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="276" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="277" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="279" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="280" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="282" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="283" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="285" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="286" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="288" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="289" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="291" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="292" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="294" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="295" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="297" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="298" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="300" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="301" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="303" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="304" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="305" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="306" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="307" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="309" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="310" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="311" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="312" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="313" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="1:12" customFormat="1" x14ac:dyDescent="0.25"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="105" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="109" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="114" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="120" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="121" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="123" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="124" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="126" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="127" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="129" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="130" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="132" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="133" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="135" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="136" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="138" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="139" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="141" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="142" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="144" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="145" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="147" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="148" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="150" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="151" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="153" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="154" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="156" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="157" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="159" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="160" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="162" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="163" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="165" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="174" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="178" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="180" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="184" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="186" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="187" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="192" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="196" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="198" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="199" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="204" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="207" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="208" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="210" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="211" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="213" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="214" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="219" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="220" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="222" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="223" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="225" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="226" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="231" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="235" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="237" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="238" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="240" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="241" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="249" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="250" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="252" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="253" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="255" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="259" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="261" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="265" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="267" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="268" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="276" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="277" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="279" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="280" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="282" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="283" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="291" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="292" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="294" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="298" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="303" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="304" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="306" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="307" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="309" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="310" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="312" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="313" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:16" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1269,16 +1328,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1286,19 +1345,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1321,332 +1380,332 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -1746,552 +1805,552 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -2337,10 +2396,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2364,10 +2423,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2377,16 +2436,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -2404,4 +2463,72 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:G3"/>
+  <sheetViews>
+    <sheetView zoomScale="130" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>